--- a/2017年/考核表2017-主管-名字.xlsx
+++ b/2017年/考核表2017-主管-名字.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bloo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bloo\2017年\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,10 +253,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,31 +289,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +646,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C12"/>
+      <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -658,49 +669,49 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,102 +728,110 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="7" t="s">
+      <c r="E8" s="18">
+        <v>83</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="7" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="B8:B12"/>
@@ -822,12 +841,10 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
